--- a/1 NHI impact/output/sfig_12_did_honest.xlsx
+++ b/1 NHI impact/output/sfig_12_did_honest.xlsx
@@ -479,7 +479,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -547,7 +547,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -615,7 +615,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -683,7 +683,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -751,7 +751,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -819,7 +819,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -887,7 +887,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -955,7 +955,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1023,7 +1023,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1091,7 +1091,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1151,7 +1151,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1219,7 +1219,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1287,7 +1287,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1355,7 +1355,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1423,7 +1423,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1491,7 +1491,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1559,7 +1559,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1627,7 +1627,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1695,7 +1695,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1763,7 +1763,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1831,7 +1831,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1891,7 +1891,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1959,7 +1959,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2027,7 +2027,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2095,7 +2095,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2163,7 +2163,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2231,7 +2231,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2299,7 +2299,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2367,7 +2367,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2435,7 +2435,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2503,7 +2503,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2571,7 +2571,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2631,7 +2631,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2699,7 +2699,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2767,7 +2767,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2835,7 +2835,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2903,7 +2903,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2971,7 +2971,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3039,7 +3039,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3107,7 +3107,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3175,7 +3175,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3243,7 +3243,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3311,7 +3311,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3371,7 +3371,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3439,7 +3439,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3507,7 +3507,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3575,7 +3575,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3643,7 +3643,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3711,7 +3711,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3779,7 +3779,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3847,7 +3847,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3915,7 +3915,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3983,7 +3983,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4051,7 +4051,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4111,7 +4111,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4179,7 +4179,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4247,7 +4247,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4315,7 +4315,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4383,7 +4383,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4451,7 +4451,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4519,7 +4519,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4587,7 +4587,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4655,7 +4655,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4723,7 +4723,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4791,7 +4791,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4851,7 +4851,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4919,7 +4919,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4987,7 +4987,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5055,7 +5055,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5123,7 +5123,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5191,7 +5191,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5259,7 +5259,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5327,7 +5327,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5395,7 +5395,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5463,7 +5463,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5531,7 +5531,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -5591,7 +5591,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -5659,7 +5659,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5727,7 +5727,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5795,7 +5795,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5863,7 +5863,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5931,7 +5931,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5999,7 +5999,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6067,7 +6067,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6135,7 +6135,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6203,7 +6203,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6271,7 +6271,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -6331,7 +6331,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -6399,7 +6399,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -6467,7 +6467,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -6535,7 +6535,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -6603,7 +6603,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6671,7 +6671,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -6739,7 +6739,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6807,7 +6807,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6875,7 +6875,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6943,7 +6943,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -7011,7 +7011,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -7071,7 +7071,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -7139,7 +7139,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -7207,7 +7207,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -7275,7 +7275,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -7343,7 +7343,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -7411,7 +7411,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -7479,7 +7479,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -7547,7 +7547,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -7615,7 +7615,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -7683,7 +7683,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -7751,7 +7751,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -7811,7 +7811,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -7879,7 +7879,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -7947,7 +7947,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -8015,7 +8015,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -8083,7 +8083,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -8151,7 +8151,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -8219,7 +8219,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -8287,7 +8287,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -8355,7 +8355,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -8423,7 +8423,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -8491,7 +8491,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -8551,7 +8551,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -8619,7 +8619,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -8687,7 +8687,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -8755,7 +8755,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -8823,7 +8823,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -8891,7 +8891,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -8959,7 +8959,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -9027,7 +9027,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -9095,7 +9095,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -9163,7 +9163,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -9231,7 +9231,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -9291,7 +9291,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -13799,7 +13799,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -13867,7 +13867,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -13935,7 +13935,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -14003,7 +14003,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -14071,7 +14071,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -14139,7 +14139,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -14207,7 +14207,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -14275,7 +14275,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -14343,7 +14343,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -14406,7 +14406,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -14474,7 +14474,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -14542,7 +14542,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -14610,7 +14610,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -14678,7 +14678,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -14746,7 +14746,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -14814,7 +14814,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -14882,7 +14882,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -14950,7 +14950,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -15018,7 +15018,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -15081,7 +15081,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -15149,7 +15149,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -15217,7 +15217,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -15285,7 +15285,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -15353,7 +15353,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -15421,7 +15421,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -15489,7 +15489,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -15557,7 +15557,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -15625,7 +15625,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -15693,7 +15693,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -15756,7 +15756,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -15824,7 +15824,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -15892,7 +15892,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -15960,7 +15960,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -16028,7 +16028,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -16096,7 +16096,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -16164,7 +16164,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -16232,7 +16232,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -16300,7 +16300,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -16368,7 +16368,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -16431,7 +16431,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -16499,7 +16499,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -16567,7 +16567,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -16635,7 +16635,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -16703,7 +16703,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -16771,7 +16771,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -16839,7 +16839,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -16907,7 +16907,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -16975,7 +16975,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -17043,7 +17043,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -17106,7 +17106,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -17174,7 +17174,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -17242,7 +17242,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -17310,7 +17310,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -17378,7 +17378,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -17446,7 +17446,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -17514,7 +17514,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -17582,7 +17582,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -17650,7 +17650,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -17718,7 +17718,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -17781,7 +17781,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -17849,7 +17849,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -17917,7 +17917,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -17985,7 +17985,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -18053,7 +18053,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -18121,7 +18121,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -18189,7 +18189,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -18257,7 +18257,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -18325,7 +18325,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -18393,7 +18393,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -18456,7 +18456,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -18524,7 +18524,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -18592,7 +18592,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -18660,7 +18660,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -18728,7 +18728,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -18796,7 +18796,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -18864,7 +18864,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -18932,7 +18932,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -19000,7 +19000,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -19068,7 +19068,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -19131,7 +19131,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -19199,7 +19199,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -19267,7 +19267,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -19335,7 +19335,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -19403,7 +19403,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -19471,7 +19471,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -19539,7 +19539,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -19607,7 +19607,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -19675,7 +19675,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -19743,7 +19743,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -19806,7 +19806,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -19874,7 +19874,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -19942,7 +19942,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -20010,7 +20010,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -20078,7 +20078,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -20146,7 +20146,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -20214,7 +20214,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -20282,7 +20282,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -20350,7 +20350,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -20418,7 +20418,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -20481,7 +20481,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -20549,7 +20549,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -20617,7 +20617,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -20685,7 +20685,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -20753,7 +20753,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -20821,7 +20821,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -20889,7 +20889,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -20957,7 +20957,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -21025,7 +21025,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -21093,7 +21093,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -21156,7 +21156,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -21224,7 +21224,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -21292,7 +21292,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -21360,7 +21360,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -21428,7 +21428,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -21496,7 +21496,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -21564,7 +21564,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -21632,7 +21632,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -21700,7 +21700,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -21768,7 +21768,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -21831,7 +21831,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
